--- a/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,225 +452,505 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1620</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45376</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45383</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>720</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>280</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>660</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>460</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45509</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45516</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45523</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45530</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45537</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45544</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45558</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45572</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45579</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45586</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45593</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B29" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B64" t="n">
         <v>40</v>
       </c>
     </row>
@@ -685,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,73 +987,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1740</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>760</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1120</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>800</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>620</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1151,6 +1152,1041 @@
       </c>
       <c r="B22" t="n">
         <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>178</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-108.4770210179462</v>
+      </c>
+      <c r="D2" t="n">
+        <v>489.525339750763</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-133.2880132060477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>493.2052808772409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>181</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-119.8383498556163</v>
+      </c>
+      <c r="D4" t="n">
+        <v>480.8907480646865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>181</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-116.6149456920872</v>
+      </c>
+      <c r="D5" t="n">
+        <v>496.5058194718281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>182</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-139.9653400831315</v>
+      </c>
+      <c r="D6" t="n">
+        <v>480.1746361826896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>182</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-127.1288212177423</v>
+      </c>
+      <c r="D7" t="n">
+        <v>493.9426436895843</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>183</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-121.7821888395473</v>
+      </c>
+      <c r="D8" t="n">
+        <v>494.0874194500787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>183</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-133.0881066550734</v>
+      </c>
+      <c r="D9" t="n">
+        <v>504.5026057073436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>185</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-110.0473793110489</v>
+      </c>
+      <c r="D10" t="n">
+        <v>487.8571471685806</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>185</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-135.3379980224832</v>
+      </c>
+      <c r="D11" t="n">
+        <v>517.4412720414932</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>186</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-134.6061387098783</v>
+      </c>
+      <c r="D12" t="n">
+        <v>501.6174697646909</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>187</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-120.477522321279</v>
+      </c>
+      <c r="D13" t="n">
+        <v>501.891276245012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>187</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-122.7535488500974</v>
+      </c>
+      <c r="D14" t="n">
+        <v>493.7016795922974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>188</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-126.742141487532</v>
+      </c>
+      <c r="D15" t="n">
+        <v>520.788723102531</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>188</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-142.3161425807704</v>
+      </c>
+      <c r="D16" t="n">
+        <v>497.2858357608378</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>188</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-111.8452258440161</v>
+      </c>
+      <c r="D17" t="n">
+        <v>509.9373584543036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>189</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-128.6722252965511</v>
+      </c>
+      <c r="D18" t="n">
+        <v>502.1467759960259</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>190</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-95.6655534283571</v>
+      </c>
+      <c r="D19" t="n">
+        <v>510.4481273855375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>191</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-140.9200263369565</v>
+      </c>
+      <c r="D20" t="n">
+        <v>505.3034557174548</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>192</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-110.9773350679238</v>
+      </c>
+      <c r="D21" t="n">
+        <v>502.4710672561189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>192</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-123.7865941739009</v>
+      </c>
+      <c r="D22" t="n">
+        <v>497.3526526495955</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>193</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-119.6528817817718</v>
+      </c>
+      <c r="D23" t="n">
+        <v>489.8062248733799</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>193</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-115.280201892116</v>
+      </c>
+      <c r="D24" t="n">
+        <v>515.1156838472633</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>194</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-117.1994121981795</v>
+      </c>
+      <c r="D25" t="n">
+        <v>516.9035798958848</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>194</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-115.605683895288</v>
+      </c>
+      <c r="D26" t="n">
+        <v>513.6434648024842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>195</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-130.2717854501206</v>
+      </c>
+      <c r="D27" t="n">
+        <v>504.6946858846759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>195</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-113.2246016814282</v>
+      </c>
+      <c r="D28" t="n">
+        <v>502.2390206428643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>197</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-112.0215852827173</v>
+      </c>
+      <c r="D29" t="n">
+        <v>507.6570966803857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>197</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-121.9915075529279</v>
+      </c>
+      <c r="D30" t="n">
+        <v>500.2591337180123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>198</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-108.2123100283474</v>
+      </c>
+      <c r="D31" t="n">
+        <v>512.755624095086</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>198</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-118.3167515448005</v>
+      </c>
+      <c r="D32" t="n">
+        <v>534.9696204861478</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>199</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-101.7314647401948</v>
+      </c>
+      <c r="D33" t="n">
+        <v>501.0361697318867</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>199</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-109.3254627193016</v>
+      </c>
+      <c r="D34" t="n">
+        <v>504.0468349202963</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-78.56490822092861</v>
+      </c>
+      <c r="D35" t="n">
+        <v>515.7816704654687</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>201</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-102.7977106738188</v>
+      </c>
+      <c r="D36" t="n">
+        <v>503.606232988604</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>202</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-113.5116026231096</v>
+      </c>
+      <c r="D37" t="n">
+        <v>523.0661654639345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>203</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-75.21943901497082</v>
+      </c>
+      <c r="D38" t="n">
+        <v>519.6799673076135</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>204</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-108.6629377152641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>534.9400180191346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>207</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-115.578448949801</v>
+      </c>
+      <c r="D40" t="n">
+        <v>497.8124071465521</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>208</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-87.84668340440138</v>
+      </c>
+      <c r="D41" t="n">
+        <v>542.1010652774044</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>208</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-94.82724891634869</v>
+      </c>
+      <c r="D42" t="n">
+        <v>530.5855357389886</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>209</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-97.74559513045141</v>
+      </c>
+      <c r="D43" t="n">
+        <v>542.4732009537543</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>210</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-84.04291551073086</v>
+      </c>
+      <c r="D44" t="n">
+        <v>521.2361073910565</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>210</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-86.39668430883771</v>
+      </c>
+      <c r="D45" t="n">
+        <v>521.3424701078263</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>211</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-126.0645758816462</v>
+      </c>
+      <c r="D46" t="n">
+        <v>515.8335238244993</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>212</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-124.7440305714247</v>
+      </c>
+      <c r="D47" t="n">
+        <v>509.3121640557217</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>212</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-113.9730260655633</v>
+      </c>
+      <c r="D48" t="n">
+        <v>517.1897348388418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>213</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-123.6734187896474</v>
+      </c>
+      <c r="D49" t="n">
+        <v>514.1018811837342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>214</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-120.0869825673987</v>
+      </c>
+      <c r="D50" t="n">
+        <v>516.294941904277</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>215</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-147.1312701001027</v>
+      </c>
+      <c r="D51" t="n">
+        <v>527.0378143217013</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>216</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-114.4353025055987</v>
+      </c>
+      <c r="D52" t="n">
+        <v>528.1442825207286</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>217</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-102.5255024035436</v>
+      </c>
+      <c r="D53" t="n">
+        <v>533.4184505771333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>217</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-101.9834459738002</v>
+      </c>
+      <c r="D54" t="n">
+        <v>514.5418058107175</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>218</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-91.75892864852176</v>
+      </c>
+      <c r="D55" t="n">
+        <v>530.199081049958</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>218</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-86.79608211444467</v>
+      </c>
+      <c r="D56" t="n">
+        <v>542.5092961691141</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>219</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-87.63691037322263</v>
+      </c>
+      <c r="D57" t="n">
+        <v>521.3423802117663</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>219</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-81.76853774964029</v>
+      </c>
+      <c r="D58" t="n">
+        <v>545.1258627726694</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>220</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-77.91751333647079</v>
+      </c>
+      <c r="D59" t="n">
+        <v>514.2926960842901</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>220</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-62.91798615888551</v>
+      </c>
+      <c r="D60" t="n">
+        <v>528.9290973594202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>221</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-73.82393761985911</v>
+      </c>
+      <c r="D61" t="n">
+        <v>535.0969738715339</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>222</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-94.592459399516</v>
+      </c>
+      <c r="D62" t="n">
+        <v>552.0105460764755</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>222</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-66.38248415533093</v>
+      </c>
+      <c r="D63" t="n">
+        <v>531.7058806335149</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>223</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-90.51872123868819</v>
+      </c>
+      <c r="D64" t="n">
+        <v>547.3616328795513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>223</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-102.5225905975624</v>
+      </c>
+      <c r="D65" t="n">
+        <v>541.9913253504294</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>224</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-70.67995274417912</v>
+      </c>
+      <c r="D66" t="n">
+        <v>548.0923776262352</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>224</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-76.35618848703504</v>
+      </c>
+      <c r="D67" t="n">
+        <v>535.0116293634791</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>225</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-78.82814403377132</v>
+      </c>
+      <c r="D68" t="n">
+        <v>540.5579942679954</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>225</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-95.66106338438604</v>
+      </c>
+      <c r="D69" t="n">
+        <v>531.7250634175871</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>226</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-88.52153779167267</v>
+      </c>
+      <c r="D70" t="n">
+        <v>536.2020017355978</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>226</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-77.10849518604748</v>
+      </c>
+      <c r="D71" t="n">
+        <v>544.1805216785883</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>227</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-86.26799267188312</v>
+      </c>
+      <c r="D72" t="n">
+        <v>539.5554830332453</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSP61QZC_po_data.xlsx
@@ -1165,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,16 +1184,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1202,12 +1192,6 @@
       <c r="B2" t="n">
         <v>178</v>
       </c>
-      <c r="C2" t="n">
-        <v>-108.4770210179462</v>
-      </c>
-      <c r="D2" t="n">
-        <v>489.525339750763</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1216,12 +1200,6 @@
       <c r="B3" t="n">
         <v>180</v>
       </c>
-      <c r="C3" t="n">
-        <v>-133.2880132060477</v>
-      </c>
-      <c r="D3" t="n">
-        <v>493.2052808772409</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1230,12 +1208,6 @@
       <c r="B4" t="n">
         <v>181</v>
       </c>
-      <c r="C4" t="n">
-        <v>-119.8383498556163</v>
-      </c>
-      <c r="D4" t="n">
-        <v>480.8907480646865</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1244,12 +1216,6 @@
       <c r="B5" t="n">
         <v>181</v>
       </c>
-      <c r="C5" t="n">
-        <v>-116.6149456920872</v>
-      </c>
-      <c r="D5" t="n">
-        <v>496.5058194718281</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1258,12 +1224,6 @@
       <c r="B6" t="n">
         <v>182</v>
       </c>
-      <c r="C6" t="n">
-        <v>-139.9653400831315</v>
-      </c>
-      <c r="D6" t="n">
-        <v>480.1746361826896</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1272,12 +1232,6 @@
       <c r="B7" t="n">
         <v>182</v>
       </c>
-      <c r="C7" t="n">
-        <v>-127.1288212177423</v>
-      </c>
-      <c r="D7" t="n">
-        <v>493.9426436895843</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1286,12 +1240,6 @@
       <c r="B8" t="n">
         <v>183</v>
       </c>
-      <c r="C8" t="n">
-        <v>-121.7821888395473</v>
-      </c>
-      <c r="D8" t="n">
-        <v>494.0874194500787</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1300,12 +1248,6 @@
       <c r="B9" t="n">
         <v>183</v>
       </c>
-      <c r="C9" t="n">
-        <v>-133.0881066550734</v>
-      </c>
-      <c r="D9" t="n">
-        <v>504.5026057073436</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1314,12 +1256,6 @@
       <c r="B10" t="n">
         <v>185</v>
       </c>
-      <c r="C10" t="n">
-        <v>-110.0473793110489</v>
-      </c>
-      <c r="D10" t="n">
-        <v>487.8571471685806</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1328,12 +1264,6 @@
       <c r="B11" t="n">
         <v>185</v>
       </c>
-      <c r="C11" t="n">
-        <v>-135.3379980224832</v>
-      </c>
-      <c r="D11" t="n">
-        <v>517.4412720414932</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1342,12 +1272,6 @@
       <c r="B12" t="n">
         <v>186</v>
       </c>
-      <c r="C12" t="n">
-        <v>-134.6061387098783</v>
-      </c>
-      <c r="D12" t="n">
-        <v>501.6174697646909</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1356,12 +1280,6 @@
       <c r="B13" t="n">
         <v>187</v>
       </c>
-      <c r="C13" t="n">
-        <v>-120.477522321279</v>
-      </c>
-      <c r="D13" t="n">
-        <v>501.891276245012</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1370,12 +1288,6 @@
       <c r="B14" t="n">
         <v>187</v>
       </c>
-      <c r="C14" t="n">
-        <v>-122.7535488500974</v>
-      </c>
-      <c r="D14" t="n">
-        <v>493.7016795922974</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1384,12 +1296,6 @@
       <c r="B15" t="n">
         <v>188</v>
       </c>
-      <c r="C15" t="n">
-        <v>-126.742141487532</v>
-      </c>
-      <c r="D15" t="n">
-        <v>520.788723102531</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1398,12 +1304,6 @@
       <c r="B16" t="n">
         <v>188</v>
       </c>
-      <c r="C16" t="n">
-        <v>-142.3161425807704</v>
-      </c>
-      <c r="D16" t="n">
-        <v>497.2858357608378</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1412,12 +1312,6 @@
       <c r="B17" t="n">
         <v>188</v>
       </c>
-      <c r="C17" t="n">
-        <v>-111.8452258440161</v>
-      </c>
-      <c r="D17" t="n">
-        <v>509.9373584543036</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1426,12 +1320,6 @@
       <c r="B18" t="n">
         <v>189</v>
       </c>
-      <c r="C18" t="n">
-        <v>-128.6722252965511</v>
-      </c>
-      <c r="D18" t="n">
-        <v>502.1467759960259</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1440,12 +1328,6 @@
       <c r="B19" t="n">
         <v>190</v>
       </c>
-      <c r="C19" t="n">
-        <v>-95.6655534283571</v>
-      </c>
-      <c r="D19" t="n">
-        <v>510.4481273855375</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1454,12 +1336,6 @@
       <c r="B20" t="n">
         <v>191</v>
       </c>
-      <c r="C20" t="n">
-        <v>-140.9200263369565</v>
-      </c>
-      <c r="D20" t="n">
-        <v>505.3034557174548</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1468,12 +1344,6 @@
       <c r="B21" t="n">
         <v>192</v>
       </c>
-      <c r="C21" t="n">
-        <v>-110.9773350679238</v>
-      </c>
-      <c r="D21" t="n">
-        <v>502.4710672561189</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1482,12 +1352,6 @@
       <c r="B22" t="n">
         <v>192</v>
       </c>
-      <c r="C22" t="n">
-        <v>-123.7865941739009</v>
-      </c>
-      <c r="D22" t="n">
-        <v>497.3526526495955</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1496,12 +1360,6 @@
       <c r="B23" t="n">
         <v>193</v>
       </c>
-      <c r="C23" t="n">
-        <v>-119.6528817817718</v>
-      </c>
-      <c r="D23" t="n">
-        <v>489.8062248733799</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1510,12 +1368,6 @@
       <c r="B24" t="n">
         <v>193</v>
       </c>
-      <c r="C24" t="n">
-        <v>-115.280201892116</v>
-      </c>
-      <c r="D24" t="n">
-        <v>515.1156838472633</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1524,12 +1376,6 @@
       <c r="B25" t="n">
         <v>194</v>
       </c>
-      <c r="C25" t="n">
-        <v>-117.1994121981795</v>
-      </c>
-      <c r="D25" t="n">
-        <v>516.9035798958848</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1538,12 +1384,6 @@
       <c r="B26" t="n">
         <v>194</v>
       </c>
-      <c r="C26" t="n">
-        <v>-115.605683895288</v>
-      </c>
-      <c r="D26" t="n">
-        <v>513.6434648024842</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1552,12 +1392,6 @@
       <c r="B27" t="n">
         <v>195</v>
       </c>
-      <c r="C27" t="n">
-        <v>-130.2717854501206</v>
-      </c>
-      <c r="D27" t="n">
-        <v>504.6946858846759</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1566,12 +1400,6 @@
       <c r="B28" t="n">
         <v>195</v>
       </c>
-      <c r="C28" t="n">
-        <v>-113.2246016814282</v>
-      </c>
-      <c r="D28" t="n">
-        <v>502.2390206428643</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1580,12 +1408,6 @@
       <c r="B29" t="n">
         <v>197</v>
       </c>
-      <c r="C29" t="n">
-        <v>-112.0215852827173</v>
-      </c>
-      <c r="D29" t="n">
-        <v>507.6570966803857</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1594,12 +1416,6 @@
       <c r="B30" t="n">
         <v>197</v>
       </c>
-      <c r="C30" t="n">
-        <v>-121.9915075529279</v>
-      </c>
-      <c r="D30" t="n">
-        <v>500.2591337180123</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1608,12 +1424,6 @@
       <c r="B31" t="n">
         <v>198</v>
       </c>
-      <c r="C31" t="n">
-        <v>-108.2123100283474</v>
-      </c>
-      <c r="D31" t="n">
-        <v>512.755624095086</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1622,12 +1432,6 @@
       <c r="B32" t="n">
         <v>198</v>
       </c>
-      <c r="C32" t="n">
-        <v>-118.3167515448005</v>
-      </c>
-      <c r="D32" t="n">
-        <v>534.9696204861478</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1636,12 +1440,6 @@
       <c r="B33" t="n">
         <v>199</v>
       </c>
-      <c r="C33" t="n">
-        <v>-101.7314647401948</v>
-      </c>
-      <c r="D33" t="n">
-        <v>501.0361697318867</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1650,12 +1448,6 @@
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" t="n">
-        <v>-109.3254627193016</v>
-      </c>
-      <c r="D34" t="n">
-        <v>504.0468349202963</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1664,12 +1456,6 @@
       <c r="B35" t="n">
         <v>200</v>
       </c>
-      <c r="C35" t="n">
-        <v>-78.56490822092861</v>
-      </c>
-      <c r="D35" t="n">
-        <v>515.7816704654687</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1678,12 +1464,6 @@
       <c r="B36" t="n">
         <v>201</v>
       </c>
-      <c r="C36" t="n">
-        <v>-102.7977106738188</v>
-      </c>
-      <c r="D36" t="n">
-        <v>503.606232988604</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1692,12 +1472,6 @@
       <c r="B37" t="n">
         <v>202</v>
       </c>
-      <c r="C37" t="n">
-        <v>-113.5116026231096</v>
-      </c>
-      <c r="D37" t="n">
-        <v>523.0661654639345</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1706,12 +1480,6 @@
       <c r="B38" t="n">
         <v>203</v>
       </c>
-      <c r="C38" t="n">
-        <v>-75.21943901497082</v>
-      </c>
-      <c r="D38" t="n">
-        <v>519.6799673076135</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1720,12 +1488,6 @@
       <c r="B39" t="n">
         <v>204</v>
       </c>
-      <c r="C39" t="n">
-        <v>-108.6629377152641</v>
-      </c>
-      <c r="D39" t="n">
-        <v>534.9400180191346</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1734,12 +1496,6 @@
       <c r="B40" t="n">
         <v>207</v>
       </c>
-      <c r="C40" t="n">
-        <v>-115.578448949801</v>
-      </c>
-      <c r="D40" t="n">
-        <v>497.8124071465521</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1748,12 +1504,6 @@
       <c r="B41" t="n">
         <v>208</v>
       </c>
-      <c r="C41" t="n">
-        <v>-87.84668340440138</v>
-      </c>
-      <c r="D41" t="n">
-        <v>542.1010652774044</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1762,12 +1512,6 @@
       <c r="B42" t="n">
         <v>208</v>
       </c>
-      <c r="C42" t="n">
-        <v>-94.82724891634869</v>
-      </c>
-      <c r="D42" t="n">
-        <v>530.5855357389886</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1776,12 +1520,6 @@
       <c r="B43" t="n">
         <v>209</v>
       </c>
-      <c r="C43" t="n">
-        <v>-97.74559513045141</v>
-      </c>
-      <c r="D43" t="n">
-        <v>542.4732009537543</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1790,12 +1528,6 @@
       <c r="B44" t="n">
         <v>210</v>
       </c>
-      <c r="C44" t="n">
-        <v>-84.04291551073086</v>
-      </c>
-      <c r="D44" t="n">
-        <v>521.2361073910565</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1804,12 +1536,6 @@
       <c r="B45" t="n">
         <v>210</v>
       </c>
-      <c r="C45" t="n">
-        <v>-86.39668430883771</v>
-      </c>
-      <c r="D45" t="n">
-        <v>521.3424701078263</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1818,12 +1544,6 @@
       <c r="B46" t="n">
         <v>211</v>
       </c>
-      <c r="C46" t="n">
-        <v>-126.0645758816462</v>
-      </c>
-      <c r="D46" t="n">
-        <v>515.8335238244993</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1832,12 +1552,6 @@
       <c r="B47" t="n">
         <v>212</v>
       </c>
-      <c r="C47" t="n">
-        <v>-124.7440305714247</v>
-      </c>
-      <c r="D47" t="n">
-        <v>509.3121640557217</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1846,12 +1560,6 @@
       <c r="B48" t="n">
         <v>212</v>
       </c>
-      <c r="C48" t="n">
-        <v>-113.9730260655633</v>
-      </c>
-      <c r="D48" t="n">
-        <v>517.1897348388418</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1860,12 +1568,6 @@
       <c r="B49" t="n">
         <v>213</v>
       </c>
-      <c r="C49" t="n">
-        <v>-123.6734187896474</v>
-      </c>
-      <c r="D49" t="n">
-        <v>514.1018811837342</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1874,12 +1576,6 @@
       <c r="B50" t="n">
         <v>214</v>
       </c>
-      <c r="C50" t="n">
-        <v>-120.0869825673987</v>
-      </c>
-      <c r="D50" t="n">
-        <v>516.294941904277</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1888,12 +1584,6 @@
       <c r="B51" t="n">
         <v>215</v>
       </c>
-      <c r="C51" t="n">
-        <v>-147.1312701001027</v>
-      </c>
-      <c r="D51" t="n">
-        <v>527.0378143217013</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1902,12 +1592,6 @@
       <c r="B52" t="n">
         <v>216</v>
       </c>
-      <c r="C52" t="n">
-        <v>-114.4353025055987</v>
-      </c>
-      <c r="D52" t="n">
-        <v>528.1442825207286</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1916,12 +1600,6 @@
       <c r="B53" t="n">
         <v>217</v>
       </c>
-      <c r="C53" t="n">
-        <v>-102.5255024035436</v>
-      </c>
-      <c r="D53" t="n">
-        <v>533.4184505771333</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1930,12 +1608,6 @@
       <c r="B54" t="n">
         <v>217</v>
       </c>
-      <c r="C54" t="n">
-        <v>-101.9834459738002</v>
-      </c>
-      <c r="D54" t="n">
-        <v>514.5418058107175</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1944,12 +1616,6 @@
       <c r="B55" t="n">
         <v>218</v>
       </c>
-      <c r="C55" t="n">
-        <v>-91.75892864852176</v>
-      </c>
-      <c r="D55" t="n">
-        <v>530.199081049958</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1958,12 +1624,6 @@
       <c r="B56" t="n">
         <v>218</v>
       </c>
-      <c r="C56" t="n">
-        <v>-86.79608211444467</v>
-      </c>
-      <c r="D56" t="n">
-        <v>542.5092961691141</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1972,12 +1632,6 @@
       <c r="B57" t="n">
         <v>219</v>
       </c>
-      <c r="C57" t="n">
-        <v>-87.63691037322263</v>
-      </c>
-      <c r="D57" t="n">
-        <v>521.3423802117663</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1986,12 +1640,6 @@
       <c r="B58" t="n">
         <v>219</v>
       </c>
-      <c r="C58" t="n">
-        <v>-81.76853774964029</v>
-      </c>
-      <c r="D58" t="n">
-        <v>545.1258627726694</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2000,12 +1648,6 @@
       <c r="B59" t="n">
         <v>220</v>
       </c>
-      <c r="C59" t="n">
-        <v>-77.91751333647079</v>
-      </c>
-      <c r="D59" t="n">
-        <v>514.2926960842901</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2014,12 +1656,6 @@
       <c r="B60" t="n">
         <v>220</v>
       </c>
-      <c r="C60" t="n">
-        <v>-62.91798615888551</v>
-      </c>
-      <c r="D60" t="n">
-        <v>528.9290973594202</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2028,12 +1664,6 @@
       <c r="B61" t="n">
         <v>221</v>
       </c>
-      <c r="C61" t="n">
-        <v>-73.82393761985911</v>
-      </c>
-      <c r="D61" t="n">
-        <v>535.0969738715339</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2042,12 +1672,6 @@
       <c r="B62" t="n">
         <v>222</v>
       </c>
-      <c r="C62" t="n">
-        <v>-94.592459399516</v>
-      </c>
-      <c r="D62" t="n">
-        <v>552.0105460764755</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2056,12 +1680,6 @@
       <c r="B63" t="n">
         <v>222</v>
       </c>
-      <c r="C63" t="n">
-        <v>-66.38248415533093</v>
-      </c>
-      <c r="D63" t="n">
-        <v>531.7058806335149</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2070,12 +1688,6 @@
       <c r="B64" t="n">
         <v>223</v>
       </c>
-      <c r="C64" t="n">
-        <v>-90.51872123868819</v>
-      </c>
-      <c r="D64" t="n">
-        <v>547.3616328795513</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2084,12 +1696,6 @@
       <c r="B65" t="n">
         <v>223</v>
       </c>
-      <c r="C65" t="n">
-        <v>-102.5225905975624</v>
-      </c>
-      <c r="D65" t="n">
-        <v>541.9913253504294</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2098,12 +1704,6 @@
       <c r="B66" t="n">
         <v>224</v>
       </c>
-      <c r="C66" t="n">
-        <v>-70.67995274417912</v>
-      </c>
-      <c r="D66" t="n">
-        <v>548.0923776262352</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2112,12 +1712,6 @@
       <c r="B67" t="n">
         <v>224</v>
       </c>
-      <c r="C67" t="n">
-        <v>-76.35618848703504</v>
-      </c>
-      <c r="D67" t="n">
-        <v>535.0116293634791</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2126,12 +1720,6 @@
       <c r="B68" t="n">
         <v>225</v>
       </c>
-      <c r="C68" t="n">
-        <v>-78.82814403377132</v>
-      </c>
-      <c r="D68" t="n">
-        <v>540.5579942679954</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2140,12 +1728,6 @@
       <c r="B69" t="n">
         <v>225</v>
       </c>
-      <c r="C69" t="n">
-        <v>-95.66106338438604</v>
-      </c>
-      <c r="D69" t="n">
-        <v>531.7250634175871</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2154,12 +1736,6 @@
       <c r="B70" t="n">
         <v>226</v>
       </c>
-      <c r="C70" t="n">
-        <v>-88.52153779167267</v>
-      </c>
-      <c r="D70" t="n">
-        <v>536.2020017355978</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2168,12 +1744,6 @@
       <c r="B71" t="n">
         <v>226</v>
       </c>
-      <c r="C71" t="n">
-        <v>-77.10849518604748</v>
-      </c>
-      <c r="D71" t="n">
-        <v>544.1805216785883</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2181,12 +1751,6 @@
       </c>
       <c r="B72" t="n">
         <v>227</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-86.26799267188312</v>
-      </c>
-      <c r="D72" t="n">
-        <v>539.5554830332453</v>
       </c>
     </row>
   </sheetData>
